--- a/biology/Botanique/Forêts_classées_des_monts_Kouffé/Forêts_classées_des_monts_Kouffé.xlsx
+++ b/biology/Botanique/Forêts_classées_des_monts_Kouffé/Forêts_classées_des_monts_Kouffé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_class%C3%A9es_des_monts_Kouff%C3%A9</t>
+          <t>Forêts_classées_des_monts_Kouffé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les forêts classées des monts Kouffé présentent l’une des plus belles biocénoses du Bénin. Elles possèdent une grande faune typique différente de celle des parcs nationaux et de bonnes potentialités touristiques. La région des Monts Kouffé concerne ici la Forêt classée des Monts Kouffé et sa périphérie sud[1]. Ses ressources naturelles végétales subissent depuis peu diverses exploitations, d’où une dégradation accélérée de ses richesses Faunistique typiques du fait des pressions anthropiques[2].  
+Les forêts classées des monts Kouffé présentent l’une des plus belles biocénoses du Bénin. Elles possèdent une grande faune typique différente de celle des parcs nationaux et de bonnes potentialités touristiques. La région des Monts Kouffé concerne ici la Forêt classée des Monts Kouffé et sa périphérie sud. Ses ressources naturelles végétales subissent depuis peu diverses exploitations, d’où une dégradation accélérée de ses richesses Faunistique typiques du fait des pressions anthropiques.  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_class%C3%A9es_des_monts_Kouff%C3%A9</t>
+          <t>Forêts_classées_des_monts_Kouffé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est située dans la partie soudano-guinéenne de la République du Bénin. Elle est  à cheval entre les départements de la Donga, du Borgou et des Collines et couvre une superficie de 272 804 ha soit 2,37 % de la superficie nationale du pays.
 </t>
